--- a/DCS_Missions/DCS_Maps/Syria/SEAD/SA_2/Kneeboards/presets.xlsx
+++ b/DCS_Missions/DCS_Maps/Syria/SEAD/SA_2/Kneeboards/presets.xlsx
@@ -1,30 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repos\DCS_MISSIONS\DCS_Missions\DCS_Maps\Syria\Base\Kneeboards\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repos\DCS_MISSIONS\DCS_Missions\DCS_Maps\Syria\SEAD\SA_2\Kneeboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5178E60F-8CC4-4034-80AA-05C3022E3864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F59751-628D-47EB-BDCD-94E0E8157A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{0FCC770A-A480-4475-A2DE-100B627674D7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{0FCC770A-A480-4475-A2DE-100B627674D7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Enfield-1" sheetId="5" r:id="rId1"/>
-    <sheet name="Roman-1" sheetId="4" r:id="rId2"/>
-    <sheet name="Colt 2" sheetId="3" r:id="rId3"/>
-    <sheet name="Colt 1" sheetId="2" r:id="rId4"/>
-    <sheet name="Apache-1" sheetId="1" r:id="rId5"/>
+    <sheet name="Hornet 1" sheetId="4" r:id="rId1"/>
+    <sheet name="Hornet 2" sheetId="6" r:id="rId2"/>
+    <sheet name="Squid 1" sheetId="8" r:id="rId3"/>
+    <sheet name="Squid 2" sheetId="7" r:id="rId4"/>
+    <sheet name="Joker 1" sheetId="10" r:id="rId5"/>
+    <sheet name="Joker 2" sheetId="9" r:id="rId6"/>
+    <sheet name="Enfield-1" sheetId="5" r:id="rId7"/>
+    <sheet name="Colt 2" sheetId="3" r:id="rId8"/>
+    <sheet name="Colt 1" sheetId="2" r:id="rId9"/>
+    <sheet name="Apache-1" sheetId="1" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'Apache-1'!$D$3:$I$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Colt 1'!$D$3:$I$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Colt 2'!$D$3:$I$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Enfield-1'!$D$3:$I$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Roman-1'!$D$3:$I$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">'Apache-1'!$D$3:$I$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'Colt 1'!$D$3:$I$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'Colt 2'!$D$3:$I$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'Enfield-1'!$D$3:$I$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Hornet 1'!$D$3:$J$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Hornet 2'!$D$3:$J$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Joker 1'!$D$3:$J$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'Joker 2'!$D$3:$J$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Squid 1'!$D$3:$J$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Squid 2'!$D$3:$J$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="157">
   <si>
     <t>ARC-186</t>
   </si>
@@ -237,12 +247,6 @@
     <t>Warsaw NDB</t>
   </si>
   <si>
-    <t>F-18</t>
-  </si>
-  <si>
-    <t>ROMAN-1 &lt;- PRAYER</t>
-  </si>
-  <si>
     <t>ARC-210</t>
   </si>
   <si>
@@ -255,15 +259,9 @@
     <t>Warsaw NDB 50 Mhz FM</t>
   </si>
   <si>
-    <t>129.25</t>
-  </si>
-  <si>
     <t>120.75</t>
   </si>
   <si>
-    <t>256.10</t>
-  </si>
-  <si>
     <t>231.75</t>
   </si>
   <si>
@@ -289,13 +287,253 @@
   </si>
   <si>
     <t>UHF/VHF</t>
+  </si>
+  <si>
+    <t>Red Crown</t>
+  </si>
+  <si>
+    <t>Departure</t>
+  </si>
+  <si>
+    <t>Strike</t>
+  </si>
+  <si>
+    <t>CACCT</t>
+  </si>
+  <si>
+    <t>Approach</t>
+  </si>
+  <si>
+    <t>Marshall</t>
+  </si>
+  <si>
+    <t>Approach aux</t>
+  </si>
+  <si>
+    <t>Squad Comm</t>
+  </si>
+  <si>
+    <t>Tower/Padlles</t>
+  </si>
+  <si>
+    <t>262.00</t>
+  </si>
+  <si>
+    <t>258.20</t>
+  </si>
+  <si>
+    <t>257.70</t>
+  </si>
+  <si>
+    <t>258.30</t>
+  </si>
+  <si>
+    <t>258.50</t>
+  </si>
+  <si>
+    <t>258.70</t>
+  </si>
+  <si>
+    <t>258.00</t>
+  </si>
+  <si>
+    <t>260.00</t>
+  </si>
+  <si>
+    <t>241.50</t>
+  </si>
+  <si>
+    <t>244.00</t>
+  </si>
+  <si>
+    <t>241.80</t>
+  </si>
+  <si>
+    <t>Wizard</t>
+  </si>
+  <si>
+    <t>Flight</t>
+  </si>
+  <si>
+    <t>251.00</t>
+  </si>
+  <si>
+    <t>Magic H</t>
+  </si>
+  <si>
+    <t>Darkstar AI</t>
+  </si>
+  <si>
+    <t>DCS S.C.</t>
+  </si>
+  <si>
+    <t>127.50</t>
+  </si>
+  <si>
+    <t>CVN 73 - ICLS Ch 11</t>
+  </si>
+  <si>
+    <t>CVN 73 - Link 4 /  336.00 Mhz</t>
+  </si>
+  <si>
+    <t>"Arco Rcvr AAR" - TACAN 69 Y</t>
+  </si>
+  <si>
+    <t>CVN 73 - TACAN 74 X</t>
+  </si>
+  <si>
+    <t>"Shell 1 AAR" - TACAN 51 Y</t>
+  </si>
+  <si>
+    <t>YARDSTICK - Ldr: 37 / Wing: 100 (Y AA)</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>WP 10</t>
+  </si>
+  <si>
+    <t>AAR</t>
+  </si>
+  <si>
+    <t>WP 2 / WP 3</t>
+  </si>
+  <si>
+    <t>TGT</t>
+  </si>
+  <si>
+    <t>WP 5</t>
+  </si>
+  <si>
+    <t>F-18 C</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>HORNET 1 / SHAMIR</t>
+  </si>
+  <si>
+    <t>HORNET 2 / SHAMIR</t>
+  </si>
+  <si>
+    <t>DEAD</t>
+  </si>
+  <si>
+    <t>SEAD</t>
+  </si>
+  <si>
+    <t>WP 11 / WP 18</t>
+  </si>
+  <si>
+    <t>MIDS:</t>
+  </si>
+  <si>
+    <t>251.60</t>
+  </si>
+  <si>
+    <t>251.30</t>
+  </si>
+  <si>
+    <t>SQUID 1 / AHMED</t>
+  </si>
+  <si>
+    <t>SQUID 2 / AHMED</t>
+  </si>
+  <si>
+    <t>WP 6</t>
+  </si>
+  <si>
+    <t>"Shell 2 AAR" - TACAN 52 Y</t>
+  </si>
+  <si>
+    <t>252.00</t>
+  </si>
+  <si>
+    <t>252.30</t>
+  </si>
+  <si>
+    <t>252.60</t>
+  </si>
+  <si>
+    <t>WP 7</t>
+  </si>
+  <si>
+    <t>"Shell 3 AAR" - TACAN 53 Y</t>
+  </si>
+  <si>
+    <t>253.00</t>
+  </si>
+  <si>
+    <t>253.30</t>
+  </si>
+  <si>
+    <t>253.60</t>
+  </si>
+  <si>
+    <t>HOLD</t>
+  </si>
+  <si>
+    <t>WP 8</t>
+  </si>
+  <si>
+    <t>WP 4</t>
+  </si>
+  <si>
+    <t>KY-58 Ch-2</t>
+  </si>
+  <si>
+    <t>Arco</t>
+  </si>
+  <si>
+    <t>250.80</t>
+  </si>
+  <si>
+    <t>Shell ONE</t>
+  </si>
+  <si>
+    <t>250.20</t>
+  </si>
+  <si>
+    <t>Shell TWO</t>
+  </si>
+  <si>
+    <t>250.40</t>
+  </si>
+  <si>
+    <t>Shell THREE</t>
+  </si>
+  <si>
+    <t>250.60</t>
+  </si>
+  <si>
+    <t>YARDSTICK - Ldr: 38 / Wing: 101 (Y AA)</t>
+  </si>
+  <si>
+    <t>YARDSTICK - Ldr: 39 / Wing: 102 (Y AA)</t>
+  </si>
+  <si>
+    <t>YARDSTICK - Ldr: 40 / Wing: 103 (Y AA)</t>
+  </si>
+  <si>
+    <t>YARDSTICK - Ldr: 41 / Wing: 105 (Y AA)</t>
+  </si>
+  <si>
+    <t>YARDSTICK - Ldr: 42 / Wing: 106 (Y AA)</t>
+  </si>
+  <si>
+    <t>JOKER 1 / FAKIR</t>
+  </si>
+  <si>
+    <t>JOKER 2 / FAKIR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,8 +567,73 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFDCDDDE"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -379,8 +682,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8B8B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor theme="2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor theme="2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -525,11 +870,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -721,6 +1103,196 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -745,92 +1317,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -838,6 +1332,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF8B8B"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1145,11 +1644,589 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C02678EA-46E4-4A82-8844-3A8C9E213DB4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F51AC91-C073-48F1-A978-1644164E838A}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="D2:T36"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:J36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="11.81640625" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" customWidth="1"/>
+    <col min="10" max="10" width="3.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D3" s="141" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="142"/>
+      <c r="F3" s="141" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="142"/>
+    </row>
+    <row r="4" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D4" s="143"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="144"/>
+    </row>
+    <row r="5" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D5" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="46"/>
+      <c r="G5" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="46"/>
+    </row>
+    <row r="6" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D6" s="108">
+        <v>1</v>
+      </c>
+      <c r="E6" s="109" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="110" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="108">
+        <v>1</v>
+      </c>
+      <c r="H6" s="109" t="s">
+        <v>93</v>
+      </c>
+      <c r="I6" s="110" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D7" s="82">
+        <v>2</v>
+      </c>
+      <c r="E7" s="114" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="115" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="82">
+        <v>2</v>
+      </c>
+      <c r="H7" s="114" t="s">
+        <v>89</v>
+      </c>
+      <c r="I7" s="115" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D8" s="82">
+        <v>3</v>
+      </c>
+      <c r="E8" s="114" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="115" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="82">
+        <v>3</v>
+      </c>
+      <c r="H8" s="114" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" s="115" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D9" s="82">
+        <v>4</v>
+      </c>
+      <c r="E9" s="114" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="115" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="82">
+        <v>4</v>
+      </c>
+      <c r="H9" s="114" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9" s="115" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D10" s="82">
+        <v>5</v>
+      </c>
+      <c r="E10" s="114" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="115" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" s="82">
+        <v>5</v>
+      </c>
+      <c r="H10" s="114" t="s">
+        <v>96</v>
+      </c>
+      <c r="I10" s="115" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D11" s="33">
+        <v>6</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" s="103" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" s="33">
+        <v>6</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="I11" s="103" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D12" s="138">
+        <v>7</v>
+      </c>
+      <c r="E12" s="139" t="s">
+        <v>145</v>
+      </c>
+      <c r="F12" s="140" t="s">
+        <v>144</v>
+      </c>
+      <c r="G12" s="138">
+        <v>7</v>
+      </c>
+      <c r="H12" s="139" t="s">
+        <v>145</v>
+      </c>
+      <c r="I12" s="140" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D13" s="138">
+        <v>8</v>
+      </c>
+      <c r="E13" s="139" t="s">
+        <v>143</v>
+      </c>
+      <c r="F13" s="140" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="138">
+        <v>8</v>
+      </c>
+      <c r="H13" s="139" t="s">
+        <v>143</v>
+      </c>
+      <c r="I13" s="140" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D14" s="82">
+        <v>9</v>
+      </c>
+      <c r="E14" s="62"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="82">
+        <v>9</v>
+      </c>
+      <c r="H14" s="62"/>
+      <c r="I14" s="104"/>
+    </row>
+    <row r="15" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D15" s="82">
+        <v>10</v>
+      </c>
+      <c r="E15" s="114" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="115" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="82">
+        <v>10</v>
+      </c>
+      <c r="H15" s="114" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" s="115" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D16" s="132">
+        <v>11</v>
+      </c>
+      <c r="E16" s="133" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="134" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" s="132">
+        <v>11</v>
+      </c>
+      <c r="H16" s="133" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" s="134" t="s">
+        <v>100</v>
+      </c>
+      <c r="J16" s="149" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D17" s="126">
+        <v>12</v>
+      </c>
+      <c r="E17" s="127" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="126">
+        <v>12</v>
+      </c>
+      <c r="H17" s="127" t="s">
+        <v>95</v>
+      </c>
+      <c r="I17" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="J17" s="150"/>
+    </row>
+    <row r="18" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D18" s="129">
+        <v>13</v>
+      </c>
+      <c r="E18" s="130" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" s="131" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="129">
+        <v>13</v>
+      </c>
+      <c r="H18" s="130" t="s">
+        <v>125</v>
+      </c>
+      <c r="I18" s="131" t="s">
+        <v>98</v>
+      </c>
+      <c r="J18" s="150"/>
+    </row>
+    <row r="19" spans="4:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D19" s="135">
+        <v>14</v>
+      </c>
+      <c r="E19" s="136" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="137" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="135">
+        <v>14</v>
+      </c>
+      <c r="H19" s="136" t="s">
+        <v>99</v>
+      </c>
+      <c r="I19" s="137" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="151"/>
+    </row>
+    <row r="20" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D20" s="82">
+        <v>15</v>
+      </c>
+      <c r="E20" s="114" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="116" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" s="82">
+        <v>15</v>
+      </c>
+      <c r="H20" s="114" t="s">
+        <v>90</v>
+      </c>
+      <c r="I20" s="115" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D21" s="105">
+        <v>16</v>
+      </c>
+      <c r="E21" s="106" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="107" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21" s="105">
+        <v>16</v>
+      </c>
+      <c r="H21" s="106" t="s">
+        <v>86</v>
+      </c>
+      <c r="I21" s="107" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D22" s="82">
+        <v>17</v>
+      </c>
+      <c r="E22" s="114" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="115" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" s="82">
+        <v>17</v>
+      </c>
+      <c r="H22" s="114" t="s">
+        <v>91</v>
+      </c>
+      <c r="I22" s="115" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D23" s="82">
+        <v>18</v>
+      </c>
+      <c r="E23" s="62"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="82">
+        <v>18</v>
+      </c>
+      <c r="H23" s="62"/>
+      <c r="I23" s="104"/>
+    </row>
+    <row r="24" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D24" s="82">
+        <v>19</v>
+      </c>
+      <c r="E24" s="62"/>
+      <c r="F24" s="104"/>
+      <c r="G24" s="82">
+        <v>19</v>
+      </c>
+      <c r="H24" s="62"/>
+      <c r="I24" s="104"/>
+    </row>
+    <row r="25" spans="4:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D25" s="111">
+        <v>20</v>
+      </c>
+      <c r="E25" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="113" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="111">
+        <v>20</v>
+      </c>
+      <c r="H25" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="I25" s="113" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D26" s="77"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="79"/>
+    </row>
+    <row r="27" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D27" s="54"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="55"/>
+      <c r="T27" s="102"/>
+    </row>
+    <row r="28" spans="4:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F28" s="29"/>
+      <c r="I28" s="31"/>
+    </row>
+    <row r="29" spans="4:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D29" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="147" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="148"/>
+    </row>
+    <row r="30" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D30" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="117" t="s">
+        <v>110</v>
+      </c>
+      <c r="I30" s="118" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D31" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="117" t="s">
+        <v>112</v>
+      </c>
+      <c r="I31" s="118" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D32" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="117" t="s">
+        <v>114</v>
+      </c>
+      <c r="I32" s="118" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D33" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="119"/>
+      <c r="I33" s="118"/>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D34" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="119" t="s">
+        <v>138</v>
+      </c>
+      <c r="I34" s="118" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D35" s="122" t="s">
+        <v>123</v>
+      </c>
+      <c r="E35" s="123" t="s">
+        <v>98</v>
+      </c>
+      <c r="F35" s="123" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D36" s="124"/>
+      <c r="E36" s="125">
+        <v>11</v>
+      </c>
+      <c r="F36" s="125">
+        <v>1</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="120" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D3:E4"/>
+    <mergeCell ref="F3:I4"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J16:J19"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="6" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02854FB9-005E-4967-BB26-79DE4C6684D3}">
   <dimension ref="D2:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1160,128 +2237,124 @@
   <sheetData>
     <row r="2" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D3" s="73" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="74"/>
-      <c r="F3" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="74"/>
+      <c r="D3" s="141" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="142"/>
+      <c r="F3" s="141" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="142"/>
     </row>
     <row r="4" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D4" s="75"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="76"/>
+      <c r="D4" s="143"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="144"/>
     </row>
     <row r="5" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D5" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="46" t="s">
-        <v>80</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="46"/>
       <c r="G5" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="H5" s="106"/>
-      <c r="I5" s="46" t="s">
-        <v>22</v>
+        <v>2</v>
+      </c>
+      <c r="H5" s="45"/>
+      <c r="I5" s="48" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D6" s="82">
+      <c r="D6" s="32">
         <v>1</v>
       </c>
-      <c r="E6" s="83" t="s">
+      <c r="E6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="84" t="s">
+      <c r="F6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="107">
+      <c r="G6" s="34">
         <v>1</v>
       </c>
-      <c r="H6" s="108"/>
-      <c r="I6" s="109"/>
+      <c r="H6" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="81" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="7" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D7" s="33">
         <v>2</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="F7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="90">
+      <c r="G7" s="36">
         <v>2</v>
       </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="91"/>
+      <c r="H7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D8" s="33">
         <v>3</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="F8" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="90">
+      <c r="G8" s="37">
         <v>3</v>
       </c>
-      <c r="H8" s="62"/>
-      <c r="I8" s="91"/>
+      <c r="H8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D9" s="39">
+      <c r="D9" s="34">
         <v>4</v>
       </c>
-      <c r="E9" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="39">
+      <c r="E9" s="13"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="34">
         <v>4</v>
       </c>
-      <c r="H9" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="25" t="s">
-        <v>20</v>
-      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D10" s="39">
+      <c r="D10" s="34">
         <v>5</v>
       </c>
-      <c r="E10" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="39">
+      <c r="E10" s="13"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="34">
         <v>5</v>
       </c>
-      <c r="H10" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>19</v>
-      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D11" s="34">
@@ -1293,7 +2366,7 @@
         <v>6</v>
       </c>
       <c r="H11" s="13"/>
-      <c r="I11" s="21"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D12" s="34">
@@ -1305,7 +2378,7 @@
         <v>7</v>
       </c>
       <c r="H12" s="13"/>
-      <c r="I12" s="21"/>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D13" s="34">
@@ -1317,7 +2390,7 @@
         <v>8</v>
       </c>
       <c r="H13" s="13"/>
-      <c r="I13" s="21"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D14" s="34">
@@ -1329,191 +2402,203 @@
         <v>9</v>
       </c>
       <c r="H14" s="13"/>
-      <c r="I14" s="21"/>
-    </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D15" s="90">
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D15" s="35">
         <v>10</v>
       </c>
-      <c r="E15" s="62"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="90">
+      <c r="E15" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="38">
         <v>10</v>
       </c>
-      <c r="H15" s="62"/>
-      <c r="I15" s="91"/>
-    </row>
-    <row r="16" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D16" s="32">
+      <c r="H15" s="18"/>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F16" s="29"/>
+      <c r="I16" s="31"/>
+    </row>
+    <row r="17" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D17" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="50"/>
+      <c r="G17" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="51"/>
+      <c r="I17" s="43" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D18" s="32">
+        <v>1</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="34">
+        <v>1</v>
+      </c>
+      <c r="H18" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" s="81" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D19" s="36">
+        <v>2</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="36">
+        <v>2</v>
+      </c>
+      <c r="H19" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="32">
-        <v>11</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I16" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D17" s="36">
+      <c r="I19" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D20" s="37">
+        <v>3</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="37">
+        <v>3</v>
+      </c>
+      <c r="H20" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="36">
-        <v>12</v>
-      </c>
-      <c r="H17" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="I17" s="23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D18" s="37">
-        <v>13</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="F18" s="24" t="s">
+      <c r="I20" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="37">
-        <v>13</v>
-      </c>
-      <c r="H18" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="I18" s="24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D19" s="34">
-        <v>14</v>
-      </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="34">
-        <v>14</v>
-      </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="21"/>
-    </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D20" s="34">
-        <v>15</v>
-      </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="34">
-        <v>15</v>
-      </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="21"/>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D21" s="34">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="21"/>
       <c r="G21" s="34">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H21" s="13"/>
-      <c r="I21" s="21"/>
+      <c r="I21" s="10"/>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D22" s="34">
-        <v>17</v>
-      </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="21"/>
+      <c r="D22" s="39">
+        <v>5</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>19</v>
+      </c>
       <c r="G22" s="34">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="H22" s="13"/>
-      <c r="I22" s="21"/>
+      <c r="I22" s="10"/>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D23" s="34">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="21"/>
       <c r="G23" s="34">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H23" s="13"/>
-      <c r="I23" s="21"/>
+      <c r="I23" s="10"/>
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D24" s="99">
-        <v>19</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="90">
-        <v>19</v>
-      </c>
-      <c r="H24" s="62"/>
-      <c r="I24" s="91"/>
-    </row>
-    <row r="25" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D24" s="39">
+        <v>7</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="34">
+        <v>7</v>
+      </c>
+      <c r="H24" s="13"/>
+      <c r="I24" s="10"/>
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D25" s="34">
-        <v>20</v>
-      </c>
-      <c r="E25" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="34">
+        <v>8</v>
+      </c>
+      <c r="H25" s="13"/>
+      <c r="I25" s="10"/>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D26" s="34">
+        <v>9</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="34">
+        <v>9</v>
+      </c>
+      <c r="H26" s="13"/>
+      <c r="I26" s="10"/>
+    </row>
+    <row r="27" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D27" s="38">
+        <v>10</v>
+      </c>
+      <c r="E27" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F27" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="34">
-        <v>20</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I25" s="21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D26" s="85"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="87"/>
-    </row>
-    <row r="27" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D27" s="54"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="55"/>
+      <c r="G27" s="38">
+        <v>10</v>
+      </c>
+      <c r="H27" s="18"/>
+      <c r="I27" s="11"/>
     </row>
     <row r="28" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F28" s="29"/>
@@ -1526,10 +2611,10 @@
       <c r="E29" s="40"/>
       <c r="F29" s="40"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="79" t="s">
+      <c r="H29" s="147" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="80"/>
+      <c r="I29" s="148"/>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D30" s="53" t="s">
@@ -1560,7 +2645,9 @@
       <c r="I32" s="6"/>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D33" s="2"/>
+      <c r="D33" s="53" t="s">
+        <v>66</v>
+      </c>
       <c r="E33" s="3"/>
       <c r="F33" s="41"/>
       <c r="G33" s="3"/>
@@ -1604,11 +2691,2910 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F51AC91-C073-48F1-A978-1644164E838A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DF6396-7560-41A9-842B-A6BEA0355F17}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="D2:T36"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:J36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="11.81640625" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" customWidth="1"/>
+    <col min="10" max="10" width="3.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D3" s="141" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="142"/>
+      <c r="F3" s="141" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="142"/>
+    </row>
+    <row r="4" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D4" s="143"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="144"/>
+    </row>
+    <row r="5" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D5" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="46"/>
+      <c r="G5" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="46"/>
+    </row>
+    <row r="6" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D6" s="108">
+        <v>1</v>
+      </c>
+      <c r="E6" s="109" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="110" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="108">
+        <v>1</v>
+      </c>
+      <c r="H6" s="109" t="s">
+        <v>93</v>
+      </c>
+      <c r="I6" s="110" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D7" s="82">
+        <v>2</v>
+      </c>
+      <c r="E7" s="114" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="115" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="82">
+        <v>2</v>
+      </c>
+      <c r="H7" s="114" t="s">
+        <v>89</v>
+      </c>
+      <c r="I7" s="115" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D8" s="82">
+        <v>3</v>
+      </c>
+      <c r="E8" s="114" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="115" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="82">
+        <v>3</v>
+      </c>
+      <c r="H8" s="114" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" s="115" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D9" s="82">
+        <v>4</v>
+      </c>
+      <c r="E9" s="114" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="115" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="82">
+        <v>4</v>
+      </c>
+      <c r="H9" s="114" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9" s="115" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D10" s="82">
+        <v>5</v>
+      </c>
+      <c r="E10" s="114" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="115" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" s="82">
+        <v>5</v>
+      </c>
+      <c r="H10" s="114" t="s">
+        <v>96</v>
+      </c>
+      <c r="I10" s="115" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D11" s="33">
+        <v>6</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" s="103" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" s="33">
+        <v>6</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="I11" s="103" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D12" s="138">
+        <v>7</v>
+      </c>
+      <c r="E12" s="139" t="s">
+        <v>145</v>
+      </c>
+      <c r="F12" s="140" t="s">
+        <v>144</v>
+      </c>
+      <c r="G12" s="138">
+        <v>7</v>
+      </c>
+      <c r="H12" s="139" t="s">
+        <v>145</v>
+      </c>
+      <c r="I12" s="140" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D13" s="138">
+        <v>8</v>
+      </c>
+      <c r="E13" s="139" t="s">
+        <v>143</v>
+      </c>
+      <c r="F13" s="140" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="138">
+        <v>8</v>
+      </c>
+      <c r="H13" s="139" t="s">
+        <v>143</v>
+      </c>
+      <c r="I13" s="140" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D14" s="82">
+        <v>9</v>
+      </c>
+      <c r="E14" s="62"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="82">
+        <v>9</v>
+      </c>
+      <c r="H14" s="62"/>
+      <c r="I14" s="104"/>
+    </row>
+    <row r="15" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D15" s="82">
+        <v>10</v>
+      </c>
+      <c r="E15" s="114" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="115" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="82">
+        <v>10</v>
+      </c>
+      <c r="H15" s="114" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" s="115" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="4:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D16" s="132">
+        <v>11</v>
+      </c>
+      <c r="E16" s="133" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="134" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" s="132">
+        <v>11</v>
+      </c>
+      <c r="H16" s="133" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" s="134" t="s">
+        <v>100</v>
+      </c>
+      <c r="J16" s="149" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D17" s="126">
+        <v>12</v>
+      </c>
+      <c r="E17" s="127" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="126">
+        <v>12</v>
+      </c>
+      <c r="H17" s="127" t="s">
+        <v>95</v>
+      </c>
+      <c r="I17" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="J17" s="150"/>
+    </row>
+    <row r="18" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D18" s="129">
+        <v>13</v>
+      </c>
+      <c r="E18" s="130" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="131" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="129">
+        <v>13</v>
+      </c>
+      <c r="H18" s="130" t="s">
+        <v>124</v>
+      </c>
+      <c r="I18" s="131" t="s">
+        <v>98</v>
+      </c>
+      <c r="J18" s="150"/>
+    </row>
+    <row r="19" spans="4:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D19" s="135">
+        <v>14</v>
+      </c>
+      <c r="E19" s="136" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="137" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="135">
+        <v>14</v>
+      </c>
+      <c r="H19" s="136" t="s">
+        <v>99</v>
+      </c>
+      <c r="I19" s="137" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="151"/>
+    </row>
+    <row r="20" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D20" s="82">
+        <v>15</v>
+      </c>
+      <c r="E20" s="114" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="116" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" s="82">
+        <v>15</v>
+      </c>
+      <c r="H20" s="114" t="s">
+        <v>90</v>
+      </c>
+      <c r="I20" s="115" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D21" s="105">
+        <v>16</v>
+      </c>
+      <c r="E21" s="106" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="107" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21" s="105">
+        <v>16</v>
+      </c>
+      <c r="H21" s="106" t="s">
+        <v>86</v>
+      </c>
+      <c r="I21" s="107" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D22" s="82">
+        <v>17</v>
+      </c>
+      <c r="E22" s="114" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="115" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" s="82">
+        <v>17</v>
+      </c>
+      <c r="H22" s="114" t="s">
+        <v>91</v>
+      </c>
+      <c r="I22" s="115" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D23" s="82">
+        <v>18</v>
+      </c>
+      <c r="E23" s="62"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="82">
+        <v>18</v>
+      </c>
+      <c r="H23" s="62"/>
+      <c r="I23" s="104"/>
+    </row>
+    <row r="24" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D24" s="82">
+        <v>19</v>
+      </c>
+      <c r="E24" s="62"/>
+      <c r="F24" s="104"/>
+      <c r="G24" s="82">
+        <v>19</v>
+      </c>
+      <c r="H24" s="62"/>
+      <c r="I24" s="104"/>
+    </row>
+    <row r="25" spans="4:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D25" s="111">
+        <v>20</v>
+      </c>
+      <c r="E25" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="113" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="111">
+        <v>20</v>
+      </c>
+      <c r="H25" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="I25" s="113" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D26" s="77"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="79"/>
+    </row>
+    <row r="27" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D27" s="54"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="55"/>
+      <c r="T27" s="102"/>
+    </row>
+    <row r="28" spans="4:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F28" s="29"/>
+      <c r="I28" s="31"/>
+    </row>
+    <row r="29" spans="4:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D29" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="147" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="148"/>
+    </row>
+    <row r="30" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D30" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="117" t="s">
+        <v>110</v>
+      </c>
+      <c r="I30" s="118" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D31" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="117" t="s">
+        <v>112</v>
+      </c>
+      <c r="I31" s="118" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D32" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="117" t="s">
+        <v>114</v>
+      </c>
+      <c r="I32" s="118" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D33" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="119" t="s">
+        <v>117</v>
+      </c>
+      <c r="I33" s="121" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D34" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="119" t="s">
+        <v>138</v>
+      </c>
+      <c r="I34" s="118" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D35" s="122" t="s">
+        <v>123</v>
+      </c>
+      <c r="E35" s="123" t="s">
+        <v>98</v>
+      </c>
+      <c r="F35" s="123" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="119"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D36" s="124"/>
+      <c r="E36" s="125">
+        <v>12</v>
+      </c>
+      <c r="F36" s="125">
+        <v>1</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="120" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D3:E4"/>
+    <mergeCell ref="F3:I4"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J16:J19"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="6" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1264E4F-7811-4853-8206-14AA507CE491}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="D2:T49"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:J36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="11.81640625" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" customWidth="1"/>
+    <col min="10" max="10" width="3.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D3" s="141" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="142"/>
+      <c r="F3" s="141" t="s">
+        <v>126</v>
+      </c>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="142"/>
+    </row>
+    <row r="4" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D4" s="143"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="144"/>
+    </row>
+    <row r="5" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D5" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="46"/>
+      <c r="G5" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="46"/>
+    </row>
+    <row r="6" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D6" s="108">
+        <v>1</v>
+      </c>
+      <c r="E6" s="109" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="110" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="108">
+        <v>1</v>
+      </c>
+      <c r="H6" s="109" t="s">
+        <v>93</v>
+      </c>
+      <c r="I6" s="110" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D7" s="82">
+        <v>2</v>
+      </c>
+      <c r="E7" s="114" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="115" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="82">
+        <v>2</v>
+      </c>
+      <c r="H7" s="114" t="s">
+        <v>89</v>
+      </c>
+      <c r="I7" s="115" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D8" s="82">
+        <v>3</v>
+      </c>
+      <c r="E8" s="114" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="115" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="82">
+        <v>3</v>
+      </c>
+      <c r="H8" s="114" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" s="115" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D9" s="82">
+        <v>4</v>
+      </c>
+      <c r="E9" s="114" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="115" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="82">
+        <v>4</v>
+      </c>
+      <c r="H9" s="114" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9" s="115" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D10" s="82">
+        <v>5</v>
+      </c>
+      <c r="E10" s="114" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="115" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" s="82">
+        <v>5</v>
+      </c>
+      <c r="H10" s="114" t="s">
+        <v>96</v>
+      </c>
+      <c r="I10" s="115" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D11" s="33">
+        <v>6</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" s="103" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" s="33">
+        <v>6</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="I11" s="103" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D12" s="138">
+        <v>7</v>
+      </c>
+      <c r="E12" s="139" t="s">
+        <v>147</v>
+      </c>
+      <c r="F12" s="140" t="s">
+        <v>146</v>
+      </c>
+      <c r="G12" s="138">
+        <v>7</v>
+      </c>
+      <c r="H12" s="139" t="s">
+        <v>147</v>
+      </c>
+      <c r="I12" s="140" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D13" s="138">
+        <v>8</v>
+      </c>
+      <c r="E13" s="139" t="s">
+        <v>143</v>
+      </c>
+      <c r="F13" s="140" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="138">
+        <v>8</v>
+      </c>
+      <c r="H13" s="139" t="s">
+        <v>143</v>
+      </c>
+      <c r="I13" s="140" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D14" s="82">
+        <v>9</v>
+      </c>
+      <c r="E14" s="62"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="82">
+        <v>9</v>
+      </c>
+      <c r="H14" s="62"/>
+      <c r="I14" s="104"/>
+    </row>
+    <row r="15" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D15" s="82">
+        <v>10</v>
+      </c>
+      <c r="E15" s="114" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="115" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="82">
+        <v>10</v>
+      </c>
+      <c r="H15" s="114" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" s="115" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D16" s="132">
+        <v>11</v>
+      </c>
+      <c r="E16" s="133" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="134" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" s="132">
+        <v>11</v>
+      </c>
+      <c r="H16" s="133" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" s="134" t="s">
+        <v>100</v>
+      </c>
+      <c r="J16" s="149" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D17" s="126">
+        <v>12</v>
+      </c>
+      <c r="E17" s="127" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="126">
+        <v>12</v>
+      </c>
+      <c r="H17" s="127" t="s">
+        <v>95</v>
+      </c>
+      <c r="I17" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="J17" s="150"/>
+    </row>
+    <row r="18" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D18" s="129">
+        <v>13</v>
+      </c>
+      <c r="E18" s="130" t="s">
+        <v>131</v>
+      </c>
+      <c r="F18" s="131" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="129">
+        <v>13</v>
+      </c>
+      <c r="H18" s="130" t="s">
+        <v>131</v>
+      </c>
+      <c r="I18" s="131" t="s">
+        <v>98</v>
+      </c>
+      <c r="J18" s="150"/>
+    </row>
+    <row r="19" spans="4:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D19" s="135">
+        <v>14</v>
+      </c>
+      <c r="E19" s="136" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" s="137" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="135">
+        <v>14</v>
+      </c>
+      <c r="H19" s="136" t="s">
+        <v>130</v>
+      </c>
+      <c r="I19" s="137" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="151"/>
+    </row>
+    <row r="20" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D20" s="82">
+        <v>15</v>
+      </c>
+      <c r="E20" s="114" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="116" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" s="82">
+        <v>15</v>
+      </c>
+      <c r="H20" s="114" t="s">
+        <v>90</v>
+      </c>
+      <c r="I20" s="115" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D21" s="105">
+        <v>16</v>
+      </c>
+      <c r="E21" s="106" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="107" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21" s="105">
+        <v>16</v>
+      </c>
+      <c r="H21" s="106" t="s">
+        <v>86</v>
+      </c>
+      <c r="I21" s="107" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D22" s="82">
+        <v>17</v>
+      </c>
+      <c r="E22" s="114" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="115" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" s="82">
+        <v>17</v>
+      </c>
+      <c r="H22" s="114" t="s">
+        <v>91</v>
+      </c>
+      <c r="I22" s="115" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D23" s="82">
+        <v>18</v>
+      </c>
+      <c r="E23" s="62"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="82">
+        <v>18</v>
+      </c>
+      <c r="H23" s="62"/>
+      <c r="I23" s="104"/>
+    </row>
+    <row r="24" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D24" s="82">
+        <v>19</v>
+      </c>
+      <c r="E24" s="62"/>
+      <c r="F24" s="104"/>
+      <c r="G24" s="82">
+        <v>19</v>
+      </c>
+      <c r="H24" s="62"/>
+      <c r="I24" s="104"/>
+    </row>
+    <row r="25" spans="4:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D25" s="111">
+        <v>20</v>
+      </c>
+      <c r="E25" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="113" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="111">
+        <v>20</v>
+      </c>
+      <c r="H25" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="I25" s="113" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D26" s="77"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="79"/>
+    </row>
+    <row r="27" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D27" s="54"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="55"/>
+      <c r="T27" s="102"/>
+    </row>
+    <row r="28" spans="4:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F28" s="29"/>
+      <c r="I28" s="31"/>
+    </row>
+    <row r="29" spans="4:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D29" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="147" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="148"/>
+    </row>
+    <row r="30" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D30" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="117" t="s">
+        <v>110</v>
+      </c>
+      <c r="I30" s="118" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D31" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="117" t="s">
+        <v>112</v>
+      </c>
+      <c r="I31" s="118" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D32" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="117" t="s">
+        <v>114</v>
+      </c>
+      <c r="I32" s="118" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D33" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="119"/>
+      <c r="I33" s="118"/>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D34" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="119" t="s">
+        <v>138</v>
+      </c>
+      <c r="I34" s="118" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D35" s="122" t="s">
+        <v>123</v>
+      </c>
+      <c r="E35" s="123" t="s">
+        <v>98</v>
+      </c>
+      <c r="F35" s="123" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D36" s="124"/>
+      <c r="E36" s="125">
+        <v>21</v>
+      </c>
+      <c r="F36" s="125">
+        <v>2</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="120" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D3:E4"/>
+    <mergeCell ref="F3:I4"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J16:J19"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="6" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF9EF9B-2C91-487F-A349-9152EEADA6CA}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="D2:T49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:J36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="11.81640625" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" customWidth="1"/>
+    <col min="10" max="10" width="3.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="4:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D3" s="141" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="142"/>
+      <c r="F3" s="141" t="s">
+        <v>127</v>
+      </c>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="142"/>
+    </row>
+    <row r="4" spans="4:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D4" s="143"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="144"/>
+    </row>
+    <row r="5" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D5" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="46"/>
+      <c r="G5" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="46"/>
+    </row>
+    <row r="6" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D6" s="108">
+        <v>1</v>
+      </c>
+      <c r="E6" s="109" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="110" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="108">
+        <v>1</v>
+      </c>
+      <c r="H6" s="109" t="s">
+        <v>93</v>
+      </c>
+      <c r="I6" s="110" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D7" s="82">
+        <v>2</v>
+      </c>
+      <c r="E7" s="114" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="115" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="82">
+        <v>2</v>
+      </c>
+      <c r="H7" s="114" t="s">
+        <v>89</v>
+      </c>
+      <c r="I7" s="115" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D8" s="82">
+        <v>3</v>
+      </c>
+      <c r="E8" s="114" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="115" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="82">
+        <v>3</v>
+      </c>
+      <c r="H8" s="114" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" s="115" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D9" s="82">
+        <v>4</v>
+      </c>
+      <c r="E9" s="114" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="115" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="82">
+        <v>4</v>
+      </c>
+      <c r="H9" s="114" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9" s="115" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D10" s="82">
+        <v>5</v>
+      </c>
+      <c r="E10" s="114" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="115" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" s="82">
+        <v>5</v>
+      </c>
+      <c r="H10" s="114" t="s">
+        <v>96</v>
+      </c>
+      <c r="I10" s="115" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D11" s="33">
+        <v>6</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" s="103" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" s="33">
+        <v>6</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="I11" s="103" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D12" s="138">
+        <v>7</v>
+      </c>
+      <c r="E12" s="139" t="s">
+        <v>147</v>
+      </c>
+      <c r="F12" s="140" t="s">
+        <v>146</v>
+      </c>
+      <c r="G12" s="138">
+        <v>7</v>
+      </c>
+      <c r="H12" s="139" t="s">
+        <v>147</v>
+      </c>
+      <c r="I12" s="140" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D13" s="138">
+        <v>8</v>
+      </c>
+      <c r="E13" s="139" t="s">
+        <v>143</v>
+      </c>
+      <c r="F13" s="140" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="138">
+        <v>8</v>
+      </c>
+      <c r="H13" s="139" t="s">
+        <v>143</v>
+      </c>
+      <c r="I13" s="140" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D14" s="82">
+        <v>9</v>
+      </c>
+      <c r="E14" s="62"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="82">
+        <v>9</v>
+      </c>
+      <c r="H14" s="62"/>
+      <c r="I14" s="104"/>
+    </row>
+    <row r="15" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D15" s="82">
+        <v>10</v>
+      </c>
+      <c r="E15" s="114" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="115" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="82">
+        <v>10</v>
+      </c>
+      <c r="H15" s="114" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" s="115" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D16" s="132">
+        <v>11</v>
+      </c>
+      <c r="E16" s="133" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="134" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" s="132">
+        <v>11</v>
+      </c>
+      <c r="H16" s="133" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" s="134" t="s">
+        <v>100</v>
+      </c>
+      <c r="J16" s="149" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D17" s="126">
+        <v>12</v>
+      </c>
+      <c r="E17" s="127" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="126">
+        <v>12</v>
+      </c>
+      <c r="H17" s="127" t="s">
+        <v>95</v>
+      </c>
+      <c r="I17" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="J17" s="150"/>
+    </row>
+    <row r="18" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D18" s="129">
+        <v>13</v>
+      </c>
+      <c r="E18" s="130" t="s">
+        <v>132</v>
+      </c>
+      <c r="F18" s="131" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="129">
+        <v>13</v>
+      </c>
+      <c r="H18" s="130" t="s">
+        <v>132</v>
+      </c>
+      <c r="I18" s="131" t="s">
+        <v>98</v>
+      </c>
+      <c r="J18" s="150"/>
+    </row>
+    <row r="19" spans="4:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D19" s="135">
+        <v>14</v>
+      </c>
+      <c r="E19" s="136" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" s="137" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="135">
+        <v>14</v>
+      </c>
+      <c r="H19" s="136" t="s">
+        <v>130</v>
+      </c>
+      <c r="I19" s="137" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="151"/>
+    </row>
+    <row r="20" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D20" s="82">
+        <v>15</v>
+      </c>
+      <c r="E20" s="114" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="116" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" s="82">
+        <v>15</v>
+      </c>
+      <c r="H20" s="114" t="s">
+        <v>90</v>
+      </c>
+      <c r="I20" s="115" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D21" s="105">
+        <v>16</v>
+      </c>
+      <c r="E21" s="106" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="107" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21" s="105">
+        <v>16</v>
+      </c>
+      <c r="H21" s="106" t="s">
+        <v>86</v>
+      </c>
+      <c r="I21" s="107" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D22" s="82">
+        <v>17</v>
+      </c>
+      <c r="E22" s="114" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="115" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" s="82">
+        <v>17</v>
+      </c>
+      <c r="H22" s="114" t="s">
+        <v>91</v>
+      </c>
+      <c r="I22" s="115" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D23" s="82">
+        <v>18</v>
+      </c>
+      <c r="E23" s="62"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="82">
+        <v>18</v>
+      </c>
+      <c r="H23" s="62"/>
+      <c r="I23" s="104"/>
+    </row>
+    <row r="24" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D24" s="82">
+        <v>19</v>
+      </c>
+      <c r="E24" s="62"/>
+      <c r="F24" s="104"/>
+      <c r="G24" s="82">
+        <v>19</v>
+      </c>
+      <c r="H24" s="62"/>
+      <c r="I24" s="104"/>
+    </row>
+    <row r="25" spans="4:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D25" s="111">
+        <v>20</v>
+      </c>
+      <c r="E25" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="113" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="111">
+        <v>20</v>
+      </c>
+      <c r="H25" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="I25" s="113" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D26" s="77"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="79"/>
+    </row>
+    <row r="27" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D27" s="54"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="55"/>
+      <c r="T27" s="102"/>
+    </row>
+    <row r="28" spans="4:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F28" s="29"/>
+      <c r="I28" s="31"/>
+    </row>
+    <row r="29" spans="4:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D29" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="147" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="148"/>
+    </row>
+    <row r="30" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D30" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="117" t="s">
+        <v>110</v>
+      </c>
+      <c r="I30" s="118" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D31" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="117" t="s">
+        <v>112</v>
+      </c>
+      <c r="I31" s="118" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D32" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="117" t="s">
+        <v>114</v>
+      </c>
+      <c r="I32" s="118" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D33" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="119" t="s">
+        <v>117</v>
+      </c>
+      <c r="I33" s="121" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D34" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="119" t="s">
+        <v>138</v>
+      </c>
+      <c r="I34" s="118" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D35" s="122" t="s">
+        <v>123</v>
+      </c>
+      <c r="E35" s="123" t="s">
+        <v>98</v>
+      </c>
+      <c r="F35" s="123" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="119"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D36" s="124"/>
+      <c r="E36" s="125">
+        <v>22</v>
+      </c>
+      <c r="F36" s="125">
+        <v>2</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="120" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D3:E4"/>
+    <mergeCell ref="F3:I4"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J16:J19"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="6" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BA5DEB-11D3-4049-8FF8-B6823915F6DF}">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="D2:T36"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:J36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="11.81640625" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" customWidth="1"/>
+    <col min="10" max="10" width="3.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D3" s="141" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="142"/>
+      <c r="F3" s="141" t="s">
+        <v>155</v>
+      </c>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="142"/>
+    </row>
+    <row r="4" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D4" s="143"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="144"/>
+    </row>
+    <row r="5" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D5" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="46"/>
+      <c r="G5" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="46"/>
+    </row>
+    <row r="6" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D6" s="108">
+        <v>1</v>
+      </c>
+      <c r="E6" s="109" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="110" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="108">
+        <v>1</v>
+      </c>
+      <c r="H6" s="109" t="s">
+        <v>93</v>
+      </c>
+      <c r="I6" s="110" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D7" s="82">
+        <v>2</v>
+      </c>
+      <c r="E7" s="114" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="115" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="82">
+        <v>2</v>
+      </c>
+      <c r="H7" s="114" t="s">
+        <v>89</v>
+      </c>
+      <c r="I7" s="115" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D8" s="82">
+        <v>3</v>
+      </c>
+      <c r="E8" s="114" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="115" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="82">
+        <v>3</v>
+      </c>
+      <c r="H8" s="114" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" s="115" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D9" s="82">
+        <v>4</v>
+      </c>
+      <c r="E9" s="114" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="115" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="82">
+        <v>4</v>
+      </c>
+      <c r="H9" s="114" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9" s="115" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D10" s="82">
+        <v>5</v>
+      </c>
+      <c r="E10" s="114" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="115" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" s="82">
+        <v>5</v>
+      </c>
+      <c r="H10" s="114" t="s">
+        <v>96</v>
+      </c>
+      <c r="I10" s="115" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D11" s="33">
+        <v>6</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" s="103" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" s="33">
+        <v>6</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="I11" s="103" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D12" s="138">
+        <v>7</v>
+      </c>
+      <c r="E12" s="139" t="s">
+        <v>149</v>
+      </c>
+      <c r="F12" s="140" t="s">
+        <v>148</v>
+      </c>
+      <c r="G12" s="138">
+        <v>7</v>
+      </c>
+      <c r="H12" s="139" t="s">
+        <v>149</v>
+      </c>
+      <c r="I12" s="140" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D13" s="138">
+        <v>8</v>
+      </c>
+      <c r="E13" s="139" t="s">
+        <v>143</v>
+      </c>
+      <c r="F13" s="140" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="138">
+        <v>8</v>
+      </c>
+      <c r="H13" s="139" t="s">
+        <v>143</v>
+      </c>
+      <c r="I13" s="140" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D14" s="82">
+        <v>9</v>
+      </c>
+      <c r="E14" s="62"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="82">
+        <v>9</v>
+      </c>
+      <c r="H14" s="62"/>
+      <c r="I14" s="104"/>
+    </row>
+    <row r="15" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D15" s="82">
+        <v>10</v>
+      </c>
+      <c r="E15" s="114" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="115" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="82">
+        <v>10</v>
+      </c>
+      <c r="H15" s="114" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" s="115" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D16" s="132">
+        <v>11</v>
+      </c>
+      <c r="E16" s="133" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="134" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" s="132">
+        <v>11</v>
+      </c>
+      <c r="H16" s="133" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" s="134" t="s">
+        <v>100</v>
+      </c>
+      <c r="J16" s="149" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D17" s="126">
+        <v>12</v>
+      </c>
+      <c r="E17" s="127" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="126">
+        <v>12</v>
+      </c>
+      <c r="H17" s="127" t="s">
+        <v>95</v>
+      </c>
+      <c r="I17" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="J17" s="150"/>
+    </row>
+    <row r="18" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D18" s="129">
+        <v>13</v>
+      </c>
+      <c r="E18" s="130" t="s">
+        <v>136</v>
+      </c>
+      <c r="F18" s="131" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="129">
+        <v>13</v>
+      </c>
+      <c r="H18" s="130" t="s">
+        <v>136</v>
+      </c>
+      <c r="I18" s="131" t="s">
+        <v>98</v>
+      </c>
+      <c r="J18" s="150"/>
+    </row>
+    <row r="19" spans="4:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D19" s="135">
+        <v>14</v>
+      </c>
+      <c r="E19" s="136" t="s">
+        <v>135</v>
+      </c>
+      <c r="F19" s="137" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="135">
+        <v>14</v>
+      </c>
+      <c r="H19" s="136" t="s">
+        <v>135</v>
+      </c>
+      <c r="I19" s="137" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="151"/>
+    </row>
+    <row r="20" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D20" s="82">
+        <v>15</v>
+      </c>
+      <c r="E20" s="114" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="116" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" s="82">
+        <v>15</v>
+      </c>
+      <c r="H20" s="114" t="s">
+        <v>90</v>
+      </c>
+      <c r="I20" s="115" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D21" s="105">
+        <v>16</v>
+      </c>
+      <c r="E21" s="106" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="107" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21" s="105">
+        <v>16</v>
+      </c>
+      <c r="H21" s="106" t="s">
+        <v>86</v>
+      </c>
+      <c r="I21" s="107" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D22" s="82">
+        <v>17</v>
+      </c>
+      <c r="E22" s="114" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="115" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" s="82">
+        <v>17</v>
+      </c>
+      <c r="H22" s="114" t="s">
+        <v>91</v>
+      </c>
+      <c r="I22" s="115" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D23" s="82">
+        <v>18</v>
+      </c>
+      <c r="E23" s="62"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="82">
+        <v>18</v>
+      </c>
+      <c r="H23" s="62"/>
+      <c r="I23" s="104"/>
+    </row>
+    <row r="24" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D24" s="82">
+        <v>19</v>
+      </c>
+      <c r="E24" s="62"/>
+      <c r="F24" s="104"/>
+      <c r="G24" s="82">
+        <v>19</v>
+      </c>
+      <c r="H24" s="62"/>
+      <c r="I24" s="104"/>
+    </row>
+    <row r="25" spans="4:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D25" s="111">
+        <v>20</v>
+      </c>
+      <c r="E25" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="113" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="111">
+        <v>20</v>
+      </c>
+      <c r="H25" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="I25" s="113" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D26" s="77"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="79"/>
+    </row>
+    <row r="27" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D27" s="54"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="55"/>
+      <c r="T27" s="102"/>
+    </row>
+    <row r="28" spans="4:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F28" s="29"/>
+      <c r="I28" s="31"/>
+    </row>
+    <row r="29" spans="4:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D29" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="147" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="148"/>
+    </row>
+    <row r="30" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D30" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="117" t="s">
+        <v>110</v>
+      </c>
+      <c r="I30" s="118" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D31" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="117" t="s">
+        <v>112</v>
+      </c>
+      <c r="I31" s="118" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D32" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="117" t="s">
+        <v>114</v>
+      </c>
+      <c r="I32" s="118" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D33" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="119"/>
+      <c r="I33" s="118"/>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D34" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="119" t="s">
+        <v>138</v>
+      </c>
+      <c r="I34" s="118" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D35" s="122" t="s">
+        <v>123</v>
+      </c>
+      <c r="E35" s="123" t="s">
+        <v>98</v>
+      </c>
+      <c r="F35" s="123" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D36" s="124"/>
+      <c r="E36" s="125">
+        <v>31</v>
+      </c>
+      <c r="F36" s="125">
+        <v>3</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="120" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D3:E4"/>
+    <mergeCell ref="F3:I4"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J16:J19"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="6" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7265255A-8B0D-4A28-9AE4-B9F76E585E9E}">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="D2:T36"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:J36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="11.81640625" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" customWidth="1"/>
+    <col min="10" max="10" width="3.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="4:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D3" s="141" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="142"/>
+      <c r="F3" s="141" t="s">
+        <v>156</v>
+      </c>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="142"/>
+    </row>
+    <row r="4" spans="4:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D4" s="143"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="144"/>
+    </row>
+    <row r="5" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D5" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="46"/>
+      <c r="G5" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="46"/>
+    </row>
+    <row r="6" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D6" s="108">
+        <v>1</v>
+      </c>
+      <c r="E6" s="109" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="110" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="108">
+        <v>1</v>
+      </c>
+      <c r="H6" s="109" t="s">
+        <v>93</v>
+      </c>
+      <c r="I6" s="110" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D7" s="82">
+        <v>2</v>
+      </c>
+      <c r="E7" s="114" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="115" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="82">
+        <v>2</v>
+      </c>
+      <c r="H7" s="114" t="s">
+        <v>89</v>
+      </c>
+      <c r="I7" s="115" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D8" s="82">
+        <v>3</v>
+      </c>
+      <c r="E8" s="114" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="115" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="82">
+        <v>3</v>
+      </c>
+      <c r="H8" s="114" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" s="115" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D9" s="82">
+        <v>4</v>
+      </c>
+      <c r="E9" s="114" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="115" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="82">
+        <v>4</v>
+      </c>
+      <c r="H9" s="114" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9" s="115" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D10" s="82">
+        <v>5</v>
+      </c>
+      <c r="E10" s="114" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="115" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" s="82">
+        <v>5</v>
+      </c>
+      <c r="H10" s="114" t="s">
+        <v>96</v>
+      </c>
+      <c r="I10" s="115" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D11" s="33">
+        <v>6</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" s="103" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" s="33">
+        <v>6</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="I11" s="103" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D12" s="138">
+        <v>7</v>
+      </c>
+      <c r="E12" s="139" t="s">
+        <v>149</v>
+      </c>
+      <c r="F12" s="140" t="s">
+        <v>148</v>
+      </c>
+      <c r="G12" s="138">
+        <v>7</v>
+      </c>
+      <c r="H12" s="139" t="s">
+        <v>149</v>
+      </c>
+      <c r="I12" s="140" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D13" s="138">
+        <v>8</v>
+      </c>
+      <c r="E13" s="139" t="s">
+        <v>143</v>
+      </c>
+      <c r="F13" s="140" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="138">
+        <v>8</v>
+      </c>
+      <c r="H13" s="139" t="s">
+        <v>143</v>
+      </c>
+      <c r="I13" s="140" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D14" s="82">
+        <v>9</v>
+      </c>
+      <c r="E14" s="62"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="82">
+        <v>9</v>
+      </c>
+      <c r="H14" s="62"/>
+      <c r="I14" s="104"/>
+    </row>
+    <row r="15" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D15" s="82">
+        <v>10</v>
+      </c>
+      <c r="E15" s="114" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="115" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="82">
+        <v>10</v>
+      </c>
+      <c r="H15" s="114" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" s="115" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D16" s="132">
+        <v>11</v>
+      </c>
+      <c r="E16" s="133" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="134" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" s="132">
+        <v>11</v>
+      </c>
+      <c r="H16" s="133" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" s="134" t="s">
+        <v>100</v>
+      </c>
+      <c r="J16" s="149" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D17" s="126">
+        <v>12</v>
+      </c>
+      <c r="E17" s="127" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="126">
+        <v>12</v>
+      </c>
+      <c r="H17" s="127" t="s">
+        <v>95</v>
+      </c>
+      <c r="I17" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="J17" s="150"/>
+    </row>
+    <row r="18" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D18" s="129">
+        <v>13</v>
+      </c>
+      <c r="E18" s="130" t="s">
+        <v>137</v>
+      </c>
+      <c r="F18" s="131" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="129">
+        <v>13</v>
+      </c>
+      <c r="H18" s="130" t="s">
+        <v>137</v>
+      </c>
+      <c r="I18" s="131" t="s">
+        <v>98</v>
+      </c>
+      <c r="J18" s="150"/>
+    </row>
+    <row r="19" spans="4:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D19" s="135">
+        <v>14</v>
+      </c>
+      <c r="E19" s="136" t="s">
+        <v>135</v>
+      </c>
+      <c r="F19" s="137" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="135">
+        <v>14</v>
+      </c>
+      <c r="H19" s="136" t="s">
+        <v>135</v>
+      </c>
+      <c r="I19" s="137" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="151"/>
+    </row>
+    <row r="20" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D20" s="82">
+        <v>15</v>
+      </c>
+      <c r="E20" s="114" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="116" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" s="82">
+        <v>15</v>
+      </c>
+      <c r="H20" s="114" t="s">
+        <v>90</v>
+      </c>
+      <c r="I20" s="115" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D21" s="105">
+        <v>16</v>
+      </c>
+      <c r="E21" s="106" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="107" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21" s="105">
+        <v>16</v>
+      </c>
+      <c r="H21" s="106" t="s">
+        <v>86</v>
+      </c>
+      <c r="I21" s="107" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D22" s="82">
+        <v>17</v>
+      </c>
+      <c r="E22" s="114" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="115" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" s="82">
+        <v>17</v>
+      </c>
+      <c r="H22" s="114" t="s">
+        <v>91</v>
+      </c>
+      <c r="I22" s="115" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D23" s="82">
+        <v>18</v>
+      </c>
+      <c r="E23" s="62"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="82">
+        <v>18</v>
+      </c>
+      <c r="H23" s="62"/>
+      <c r="I23" s="104"/>
+    </row>
+    <row r="24" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D24" s="82">
+        <v>19</v>
+      </c>
+      <c r="E24" s="62"/>
+      <c r="F24" s="104"/>
+      <c r="G24" s="82">
+        <v>19</v>
+      </c>
+      <c r="H24" s="62"/>
+      <c r="I24" s="104"/>
+    </row>
+    <row r="25" spans="4:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D25" s="111">
+        <v>20</v>
+      </c>
+      <c r="E25" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="113" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="111">
+        <v>20</v>
+      </c>
+      <c r="H25" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="I25" s="113" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D26" s="77"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="79"/>
+    </row>
+    <row r="27" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D27" s="54"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="55"/>
+      <c r="T27" s="102"/>
+    </row>
+    <row r="28" spans="4:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F28" s="29"/>
+      <c r="I28" s="31"/>
+    </row>
+    <row r="29" spans="4:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D29" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="147" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="148"/>
+    </row>
+    <row r="30" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D30" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="117" t="s">
+        <v>110</v>
+      </c>
+      <c r="I30" s="118" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D31" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="117" t="s">
+        <v>112</v>
+      </c>
+      <c r="I31" s="118" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D32" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="117" t="s">
+        <v>114</v>
+      </c>
+      <c r="I32" s="118" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D33" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="119" t="s">
+        <v>117</v>
+      </c>
+      <c r="I33" s="121" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D34" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="119" t="s">
+        <v>138</v>
+      </c>
+      <c r="I34" s="118" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D35" s="122" t="s">
+        <v>123</v>
+      </c>
+      <c r="E35" s="123" t="s">
+        <v>98</v>
+      </c>
+      <c r="F35" s="123" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="119"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D36" s="124"/>
+      <c r="E36" s="125">
+        <v>32</v>
+      </c>
+      <c r="F36" s="125">
+        <v>3</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="120" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D3:E4"/>
+    <mergeCell ref="F3:I4"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J16:J19"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="6" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C02678EA-46E4-4A82-8844-3A8C9E213DB4}">
   <dimension ref="D2:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25:F25"/>
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1619,100 +5605,88 @@
   <sheetData>
     <row r="2" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D3" s="73" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="74"/>
-      <c r="F3" s="73" t="s">
-        <v>64</v>
-      </c>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="74"/>
+      <c r="D3" s="141" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="142"/>
+      <c r="F3" s="141" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="142"/>
     </row>
     <row r="4" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D4" s="75"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="76"/>
+      <c r="D4" s="143"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="144"/>
     </row>
     <row r="5" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D5" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="I5" s="46"/>
+        <v>74</v>
+      </c>
+      <c r="E5" s="45"/>
+      <c r="F5" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" s="98"/>
+      <c r="I5" s="46" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="6" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D6" s="82">
+      <c r="D6" s="74">
         <v>1</v>
       </c>
-      <c r="E6" s="83" t="s">
+      <c r="E6" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="84" t="s">
+      <c r="F6" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="82">
+      <c r="G6" s="99">
         <v>1</v>
       </c>
-      <c r="H6" s="83" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" s="84" t="s">
-        <v>13</v>
-      </c>
+      <c r="H6" s="100"/>
+      <c r="I6" s="101"/>
     </row>
     <row r="7" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D7" s="33">
         <v>2</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="82">
         <v>2</v>
       </c>
-      <c r="H7" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="I7" s="20" t="s">
-        <v>16</v>
-      </c>
+      <c r="H7" s="62"/>
+      <c r="I7" s="83"/>
     </row>
     <row r="8" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D8" s="33">
         <v>3</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F8" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="33">
+      <c r="G8" s="82">
         <v>3</v>
       </c>
-      <c r="H8" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>17</v>
-      </c>
+      <c r="H8" s="62"/>
+      <c r="I8" s="83"/>
     </row>
     <row r="9" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D9" s="39">
@@ -1803,16 +5777,16 @@
       <c r="I14" s="21"/>
     </row>
     <row r="15" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D15" s="90">
+      <c r="D15" s="82">
         <v>10</v>
       </c>
       <c r="E15" s="62"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="90">
+      <c r="F15" s="83"/>
+      <c r="G15" s="82">
         <v>10</v>
       </c>
       <c r="H15" s="62"/>
-      <c r="I15" s="91"/>
+      <c r="I15" s="83"/>
     </row>
     <row r="16" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D16" s="32">
@@ -1839,7 +5813,7 @@
         <v>12</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>14</v>
@@ -1848,7 +5822,7 @@
         <v>12</v>
       </c>
       <c r="H17" s="26" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I17" s="23" t="s">
         <v>14</v>
@@ -1859,7 +5833,7 @@
         <v>13</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F18" s="24" t="s">
         <v>15</v>
@@ -1868,7 +5842,7 @@
         <v>13</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I18" s="24" t="s">
         <v>15</v>
@@ -1935,24 +5909,20 @@
       <c r="I23" s="21"/>
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D24" s="99">
+      <c r="D24" s="91">
         <v>19</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="81" t="s">
+      <c r="F24" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="99">
+      <c r="G24" s="82">
         <v>19</v>
       </c>
-      <c r="H24" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I24" s="81" t="s">
-        <v>18</v>
-      </c>
+      <c r="H24" s="62"/>
+      <c r="I24" s="83"/>
     </row>
     <row r="25" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D25" s="34">
@@ -1975,12 +5945,12 @@
       </c>
     </row>
     <row r="26" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D26" s="85"/>
+      <c r="D26" s="77"/>
       <c r="E26" s="68"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="85"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="77"/>
       <c r="H26" s="68"/>
-      <c r="I26" s="87"/>
+      <c r="I26" s="79"/>
     </row>
     <row r="27" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D27" s="54"/>
@@ -2001,10 +5971,10 @@
       <c r="E29" s="40"/>
       <c r="F29" s="40"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="79" t="s">
+      <c r="H29" s="147" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="80"/>
+      <c r="I29" s="148"/>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D30" s="53" t="s">
@@ -2072,14 +6042,13 @@
     <mergeCell ref="F3:I4"/>
     <mergeCell ref="H29:I29"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="6" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BB44D7-81E5-4063-8B60-ACF5218F804D}">
   <dimension ref="C2:J36"/>
   <sheetViews>
@@ -2095,24 +6064,24 @@
   <sheetData>
     <row r="2" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="74"/>
-      <c r="F3" s="73" t="s">
+      <c r="E3" s="142"/>
+      <c r="F3" s="141" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="74"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="142"/>
     </row>
     <row r="4" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D4" s="75"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="76"/>
+      <c r="D4" s="143"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="144"/>
     </row>
     <row r="5" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D5" s="67" t="s">
@@ -2131,22 +6100,22 @@
       </c>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D6" s="82">
+      <c r="D6" s="74">
         <v>0</v>
       </c>
-      <c r="E6" s="83" t="s">
+      <c r="E6" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="84" t="s">
+      <c r="F6" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="86">
+      <c r="G6" s="78">
         <v>1</v>
       </c>
       <c r="H6" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="97" t="s">
+      <c r="I6" s="89" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2180,13 +6149,13 @@
       <c r="F8" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="101">
+      <c r="G8" s="93">
         <v>3</v>
       </c>
-      <c r="H8" s="104" t="s">
+      <c r="H8" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="105" t="s">
+      <c r="I8" s="97" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2223,7 +6192,7 @@
       <c r="I10" s="10"/>
     </row>
     <row r="11" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D11" s="90">
+      <c r="D11" s="82">
         <v>5</v>
       </c>
       <c r="E11" s="13"/>
@@ -2235,7 +6204,7 @@
       <c r="I11" s="10"/>
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D12" s="90">
+      <c r="D12" s="82">
         <v>6</v>
       </c>
       <c r="E12" s="13"/>
@@ -2247,7 +6216,7 @@
       <c r="I12" s="10"/>
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D13" s="90">
+      <c r="D13" s="82">
         <v>7</v>
       </c>
       <c r="E13" s="13"/>
@@ -2259,7 +6228,7 @@
       <c r="I13" s="10"/>
     </row>
     <row r="14" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D14" s="90">
+      <c r="D14" s="82">
         <v>8</v>
       </c>
       <c r="E14" s="13"/>
@@ -2277,7 +6246,7 @@
       <c r="E15" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="81" t="s">
+      <c r="F15" s="73" t="s">
         <v>18</v>
       </c>
       <c r="G15" s="38">
@@ -2292,9 +6261,9 @@
         <v>10</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" s="100" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="92" t="s">
         <v>14</v>
       </c>
       <c r="G16" s="58"/>
@@ -2304,13 +6273,13 @@
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C17" s="57"/>
-      <c r="D17" s="101">
+      <c r="D17" s="93">
         <v>11</v>
       </c>
-      <c r="E17" s="102" t="s">
+      <c r="E17" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="103" t="s">
+      <c r="F17" s="95" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="58"/>
@@ -2320,11 +6289,11 @@
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C18" s="57"/>
-      <c r="D18" s="90">
+      <c r="D18" s="82">
         <v>12</v>
       </c>
       <c r="E18" s="62"/>
-      <c r="F18" s="93"/>
+      <c r="F18" s="85"/>
       <c r="G18" s="61"/>
       <c r="H18" s="62"/>
       <c r="I18" s="63"/>
@@ -2332,11 +6301,11 @@
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C19" s="57"/>
-      <c r="D19" s="90">
+      <c r="D19" s="82">
         <v>13</v>
       </c>
       <c r="E19" s="62"/>
-      <c r="F19" s="91"/>
+      <c r="F19" s="83"/>
       <c r="G19" s="61"/>
       <c r="H19" s="65"/>
       <c r="I19" s="63"/>
@@ -2344,11 +6313,11 @@
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C20" s="57"/>
-      <c r="D20" s="90">
+      <c r="D20" s="82">
         <v>14</v>
       </c>
       <c r="E20" s="62"/>
-      <c r="F20" s="91"/>
+      <c r="F20" s="83"/>
       <c r="G20" s="61"/>
       <c r="H20" s="66"/>
       <c r="I20" s="63"/>
@@ -2356,11 +6325,11 @@
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C21" s="57"/>
-      <c r="D21" s="90">
+      <c r="D21" s="82">
         <v>15</v>
       </c>
       <c r="E21" s="62"/>
-      <c r="F21" s="91"/>
+      <c r="F21" s="83"/>
       <c r="G21" s="61"/>
       <c r="H21" s="62"/>
       <c r="I21" s="63"/>
@@ -2368,11 +6337,11 @@
     </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C22" s="57"/>
-      <c r="D22" s="90">
+      <c r="D22" s="82">
         <v>16</v>
       </c>
       <c r="E22" s="62"/>
-      <c r="F22" s="91"/>
+      <c r="F22" s="83"/>
       <c r="G22" s="61"/>
       <c r="H22" s="62"/>
       <c r="I22" s="63"/>
@@ -2380,11 +6349,11 @@
     </row>
     <row r="23" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C23" s="57"/>
-      <c r="D23" s="90">
+      <c r="D23" s="82">
         <v>17</v>
       </c>
       <c r="E23" s="62"/>
-      <c r="F23" s="91"/>
+      <c r="F23" s="83"/>
       <c r="G23" s="61"/>
       <c r="H23" s="62"/>
       <c r="I23" s="63"/>
@@ -2392,7 +6361,7 @@
     </row>
     <row r="24" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C24" s="57"/>
-      <c r="D24" s="90">
+      <c r="D24" s="82">
         <v>18</v>
       </c>
       <c r="E24" s="13" t="s">
@@ -2408,7 +6377,7 @@
     </row>
     <row r="25" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C25" s="57"/>
-      <c r="D25" s="94">
+      <c r="D25" s="86">
         <v>19</v>
       </c>
       <c r="E25" s="18" t="s">
@@ -2425,7 +6394,7 @@
     <row r="26" spans="3:10" x14ac:dyDescent="0.35">
       <c r="D26" s="61"/>
       <c r="E26" s="62"/>
-      <c r="F26" s="98"/>
+      <c r="F26" s="90"/>
       <c r="G26" s="54"/>
       <c r="H26" s="13"/>
       <c r="I26" s="55"/>
@@ -2451,10 +6420,10 @@
       <c r="E29" s="40"/>
       <c r="F29" s="40"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="79" t="s">
+      <c r="H29" s="147" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="80"/>
+      <c r="I29" s="148"/>
     </row>
     <row r="30" spans="3:10" x14ac:dyDescent="0.35">
       <c r="D30" s="53" t="s">
@@ -2486,7 +6455,7 @@
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D33" s="53" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="41"/>
@@ -2530,7 +6499,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553D6998-EDAA-4E2E-8D9F-BC4554B6A292}">
   <dimension ref="C2:J36"/>
   <sheetViews>
@@ -2546,24 +6515,24 @@
   <sheetData>
     <row r="2" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="141" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="74"/>
-      <c r="F3" s="73" t="s">
+      <c r="E3" s="142"/>
+      <c r="F3" s="141" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="74"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="142"/>
     </row>
     <row r="4" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D4" s="75"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="76"/>
+      <c r="D4" s="143"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="144"/>
     </row>
     <row r="5" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D5" s="44" t="s">
@@ -2573,7 +6542,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="46"/>
-      <c r="G5" s="88" t="s">
+      <c r="G5" s="80" t="s">
         <v>37</v>
       </c>
       <c r="H5" s="68"/>
@@ -2582,27 +6551,27 @@
       </c>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D6" s="90" t="s">
+      <c r="D6" s="82" t="s">
         <v>39</v>
       </c>
       <c r="E6" s="62"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="86">
+      <c r="F6" s="85"/>
+      <c r="G6" s="78">
         <v>1</v>
       </c>
       <c r="H6" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="97" t="s">
+      <c r="I6" s="89" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D7" s="90" t="s">
+      <c r="D7" s="82" t="s">
         <v>40</v>
       </c>
       <c r="E7" s="62"/>
-      <c r="F7" s="91"/>
+      <c r="F7" s="83"/>
       <c r="G7" s="36">
         <v>2</v>
       </c>
@@ -2614,11 +6583,11 @@
       </c>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D8" s="90" t="s">
+      <c r="D8" s="82" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="62"/>
-      <c r="F8" s="91"/>
+      <c r="F8" s="83"/>
       <c r="G8" s="37">
         <v>3</v>
       </c>
@@ -2630,11 +6599,11 @@
       </c>
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D9" s="90" t="s">
+      <c r="D9" s="82" t="s">
         <v>42</v>
       </c>
       <c r="E9" s="62"/>
-      <c r="F9" s="91"/>
+      <c r="F9" s="83"/>
       <c r="G9" s="34">
         <v>4</v>
       </c>
@@ -2642,11 +6611,11 @@
       <c r="I9" s="10"/>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D10" s="90" t="s">
+      <c r="D10" s="82" t="s">
         <v>43</v>
       </c>
       <c r="E10" s="62"/>
-      <c r="F10" s="91"/>
+      <c r="F10" s="83"/>
       <c r="G10" s="34">
         <v>5</v>
       </c>
@@ -2654,11 +6623,11 @@
       <c r="I10" s="10"/>
     </row>
     <row r="11" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D11" s="90" t="s">
+      <c r="D11" s="82" t="s">
         <v>44</v>
       </c>
       <c r="E11" s="62"/>
-      <c r="F11" s="91"/>
+      <c r="F11" s="83"/>
       <c r="G11" s="34">
         <v>6</v>
       </c>
@@ -2666,11 +6635,11 @@
       <c r="I11" s="10"/>
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D12" s="90" t="s">
+      <c r="D12" s="82" t="s">
         <v>45</v>
       </c>
       <c r="E12" s="62"/>
-      <c r="F12" s="91"/>
+      <c r="F12" s="83"/>
       <c r="G12" s="34">
         <v>7</v>
       </c>
@@ -2678,11 +6647,11 @@
       <c r="I12" s="10"/>
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D13" s="90" t="s">
+      <c r="D13" s="82" t="s">
         <v>46</v>
       </c>
       <c r="E13" s="62"/>
-      <c r="F13" s="91"/>
+      <c r="F13" s="83"/>
       <c r="G13" s="34">
         <v>8</v>
       </c>
@@ -2690,11 +6659,11 @@
       <c r="I13" s="10"/>
     </row>
     <row r="14" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D14" s="90" t="s">
+      <c r="D14" s="82" t="s">
         <v>47</v>
       </c>
       <c r="E14" s="62"/>
-      <c r="F14" s="91"/>
+      <c r="F14" s="83"/>
       <c r="G14" s="34">
         <v>9</v>
       </c>
@@ -2702,11 +6671,11 @@
       <c r="I14" s="10"/>
     </row>
     <row r="15" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D15" s="90" t="s">
+      <c r="D15" s="82" t="s">
         <v>48</v>
       </c>
       <c r="E15" s="62"/>
-      <c r="F15" s="91"/>
+      <c r="F15" s="83"/>
       <c r="G15" s="38">
         <v>10</v>
       </c>
@@ -2715,11 +6684,11 @@
     </row>
     <row r="16" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C16" s="57"/>
-      <c r="D16" s="90" t="s">
+      <c r="D16" s="82" t="s">
         <v>50</v>
       </c>
       <c r="E16" s="58"/>
-      <c r="F16" s="92"/>
+      <c r="F16" s="84"/>
       <c r="G16" s="58"/>
       <c r="H16" s="58"/>
       <c r="I16" s="59"/>
@@ -2727,11 +6696,11 @@
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C17" s="57"/>
-      <c r="D17" s="90" t="s">
+      <c r="D17" s="82" t="s">
         <v>49</v>
       </c>
       <c r="E17" s="60"/>
-      <c r="F17" s="92"/>
+      <c r="F17" s="84"/>
       <c r="G17" s="58"/>
       <c r="H17" s="58"/>
       <c r="I17" s="60"/>
@@ -2739,11 +6708,11 @@
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C18" s="57"/>
-      <c r="D18" s="90" t="s">
+      <c r="D18" s="82" t="s">
         <v>51</v>
       </c>
       <c r="E18" s="62"/>
-      <c r="F18" s="93"/>
+      <c r="F18" s="85"/>
       <c r="G18" s="61"/>
       <c r="H18" s="62"/>
       <c r="I18" s="63"/>
@@ -2751,11 +6720,11 @@
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C19" s="57"/>
-      <c r="D19" s="90" t="s">
+      <c r="D19" s="82" t="s">
         <v>52</v>
       </c>
       <c r="E19" s="62"/>
-      <c r="F19" s="91"/>
+      <c r="F19" s="83"/>
       <c r="G19" s="61"/>
       <c r="H19" s="65"/>
       <c r="I19" s="63"/>
@@ -2763,11 +6732,11 @@
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C20" s="57"/>
-      <c r="D20" s="90" t="s">
+      <c r="D20" s="82" t="s">
         <v>53</v>
       </c>
       <c r="E20" s="62"/>
-      <c r="F20" s="91"/>
+      <c r="F20" s="83"/>
       <c r="G20" s="61"/>
       <c r="H20" s="66"/>
       <c r="I20" s="63"/>
@@ -2775,11 +6744,11 @@
     </row>
     <row r="21" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C21" s="57"/>
-      <c r="D21" s="94" t="s">
+      <c r="D21" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="95"/>
-      <c r="F21" s="96"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="88"/>
       <c r="G21" s="61"/>
       <c r="H21" s="62"/>
       <c r="I21" s="63"/>
@@ -2854,10 +6823,10 @@
       <c r="E29" s="40"/>
       <c r="F29" s="40"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="79" t="s">
+      <c r="H29" s="147" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="80"/>
+      <c r="I29" s="148"/>
     </row>
     <row r="30" spans="3:10" x14ac:dyDescent="0.35">
       <c r="D30" s="53" t="s">
@@ -2889,476 +6858,7 @@
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D33" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="6"/>
-    </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D34" s="2"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="6"/>
-    </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D35" s="2"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="6"/>
-    </row>
-    <row r="36" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D36" s="4"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D3:E4"/>
-    <mergeCell ref="F3:I4"/>
-    <mergeCell ref="H29:I29"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="6" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02854FB9-005E-4967-BB26-79DE4C6684D3}">
-  <dimension ref="D2:I36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26:F26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="6" max="6" width="11.81640625" customWidth="1"/>
-    <col min="9" max="9" width="11.81640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D3" s="73" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="74"/>
-      <c r="F3" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="74"/>
-    </row>
-    <row r="4" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D4" s="75"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="76"/>
-    </row>
-    <row r="5" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D5" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="45"/>
-      <c r="I5" s="48" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D6" s="32">
-        <v>1</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="34">
-        <v>1</v>
-      </c>
-      <c r="H6" s="72" t="s">
-        <v>61</v>
-      </c>
-      <c r="I6" s="89" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D7" s="33">
-        <v>2</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="36">
-        <v>2</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D8" s="33">
-        <v>3</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="37">
-        <v>3</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D9" s="34">
-        <v>4</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="34">
-        <v>4</v>
-      </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D10" s="34">
-        <v>5</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="34">
-        <v>5</v>
-      </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D11" s="34">
-        <v>6</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="34">
-        <v>6</v>
-      </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="10"/>
-    </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D12" s="34">
-        <v>7</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="34">
-        <v>7</v>
-      </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="10"/>
-    </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D13" s="34">
-        <v>8</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="34">
-        <v>8</v>
-      </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="10"/>
-    </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D14" s="34">
-        <v>9</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="34">
-        <v>9</v>
-      </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="10"/>
-    </row>
-    <row r="15" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D15" s="35">
-        <v>10</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="38">
-        <v>10</v>
-      </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="11"/>
-    </row>
-    <row r="16" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F16" s="29"/>
-      <c r="I16" s="31"/>
-    </row>
-    <row r="17" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D17" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="50"/>
-      <c r="G17" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="H17" s="51"/>
-      <c r="I17" s="43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D18" s="32">
-        <v>1</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="34">
-        <v>1</v>
-      </c>
-      <c r="H18" s="72" t="s">
-        <v>61</v>
-      </c>
-      <c r="I18" s="89" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D19" s="36">
-        <v>2</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="36">
-        <v>2</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D20" s="37">
-        <v>3</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="37">
-        <v>3</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D21" s="34">
-        <v>4</v>
-      </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="34">
-        <v>4</v>
-      </c>
-      <c r="H21" s="13"/>
-      <c r="I21" s="10"/>
-    </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D22" s="39">
-        <v>5</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="34">
-        <v>5</v>
-      </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="10"/>
-    </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D23" s="34">
-        <v>6</v>
-      </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="34">
-        <v>6</v>
-      </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="10"/>
-    </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D24" s="39">
-        <v>7</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="34">
-        <v>7</v>
-      </c>
-      <c r="H24" s="13"/>
-      <c r="I24" s="10"/>
-    </row>
-    <row r="25" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D25" s="34">
-        <v>8</v>
-      </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="34">
-        <v>8</v>
-      </c>
-      <c r="H25" s="13"/>
-      <c r="I25" s="10"/>
-    </row>
-    <row r="26" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D26" s="34">
-        <v>9</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" s="34">
-        <v>9</v>
-      </c>
-      <c r="H26" s="13"/>
-      <c r="I26" s="10"/>
-    </row>
-    <row r="27" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D27" s="38">
-        <v>10</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="G27" s="38">
-        <v>10</v>
-      </c>
-      <c r="H27" s="18"/>
-      <c r="I27" s="11"/>
-    </row>
-    <row r="28" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F28" s="29"/>
-      <c r="I28" s="31"/>
-    </row>
-    <row r="29" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D29" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="I29" s="80"/>
-    </row>
-    <row r="30" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D30" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="6"/>
-    </row>
-    <row r="31" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D31" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="6"/>
-    </row>
-    <row r="32" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D32" s="2"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="6"/>
-    </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D33" s="53" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="41"/>
